--- a/docs/批量导入会员（样表）.xlsx
+++ b/docs/批量导入会员（样表）.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="116">
   <si>
     <t>用户名称</t>
   </si>
@@ -71,13 +71,7 @@
     <t>用户身份证号码</t>
   </si>
   <si>
-    <t>出生年月</t>
-  </si>
-  <si>
     <t>入职时间</t>
-  </si>
-  <si>
-    <t>权限编号</t>
   </si>
   <si>
     <r>
@@ -126,39 +120,366 @@
     <t>职位名称</t>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangsan@caihua.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>432503189801123000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1898-01-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015-01-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李2</t>
+  </si>
+  <si>
+    <t>李3</t>
+  </si>
+  <si>
+    <t>李4</t>
+  </si>
+  <si>
+    <t>李5</t>
+  </si>
+  <si>
+    <t>李6</t>
+  </si>
+  <si>
+    <t>李7</t>
+  </si>
+  <si>
+    <t>李8</t>
+  </si>
+  <si>
+    <t>李9</t>
+  </si>
+  <si>
+    <t>李10</t>
+  </si>
+  <si>
+    <t>李11</t>
+  </si>
+  <si>
+    <t>李12</t>
+  </si>
+  <si>
+    <t>李13</t>
+  </si>
+  <si>
+    <t>李14</t>
+  </si>
+  <si>
+    <t>李15</t>
+  </si>
+  <si>
+    <t>李16</t>
   </si>
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部门名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事业部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事业部经理</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11100001@chyx.com</t>
+  </si>
+  <si>
+    <t>11100002@chyx.com</t>
+  </si>
+  <si>
+    <t>11100003@chyx.com</t>
+  </si>
+  <si>
+    <t>11100004@chyx.com</t>
+  </si>
+  <si>
+    <t>11100005@chyx.com</t>
+  </si>
+  <si>
+    <t>11100006@chyx.com</t>
+  </si>
+  <si>
+    <t>11100007@chyx.com</t>
+  </si>
+  <si>
+    <t>11100008@chyx.com</t>
+  </si>
+  <si>
+    <t>11100009@chyx.com</t>
+  </si>
+  <si>
+    <t>11100010@chyx.com</t>
+  </si>
+  <si>
+    <t>11100011@chyx.com</t>
+  </si>
+  <si>
+    <t>11100012@chyx.com</t>
+  </si>
+  <si>
+    <t>11100013@chyx.com</t>
+  </si>
+  <si>
+    <t>11100014@chyx.com</t>
+  </si>
+  <si>
+    <t>11100000@chyx.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11100029@chyx.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11111110000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11111110000001</t>
+  </si>
+  <si>
+    <t>11111110000002</t>
+  </si>
+  <si>
+    <t>11111110000003</t>
+  </si>
+  <si>
+    <t>11111110000004</t>
+  </si>
+  <si>
+    <t>11111110000005</t>
+  </si>
+  <si>
+    <t>11111110000006</t>
+  </si>
+  <si>
+    <t>11111110000007</t>
+  </si>
+  <si>
+    <t>11111110000008</t>
+  </si>
+  <si>
+    <t>11111110000009</t>
+  </si>
+  <si>
+    <t>11111110000010</t>
+  </si>
+  <si>
+    <t>11111110000011</t>
+  </si>
+  <si>
+    <t>11111110000012</t>
+  </si>
+  <si>
+    <t>11111110000013</t>
+  </si>
+  <si>
+    <t>11111110000014</t>
+  </si>
+  <si>
+    <t>11111110000015</t>
+  </si>
+  <si>
+    <t>1995-01-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1995-02-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1996-03-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1997-11-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1995-12-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1995-01-14</t>
+  </si>
+  <si>
+    <t>1995-02-24</t>
+  </si>
+  <si>
+    <t>1996-03-03</t>
+  </si>
+  <si>
+    <t>1997-11-10</t>
+  </si>
+  <si>
+    <t>1995-12-30</t>
+  </si>
+  <si>
+    <t>1995-01-15</t>
+  </si>
+  <si>
+    <t>1995-02-25</t>
+  </si>
+  <si>
+    <t>1996-03-04</t>
+  </si>
+  <si>
+    <t>1997-11-11</t>
+  </si>
+  <si>
+    <t>1995-12-31</t>
+  </si>
+  <si>
+    <t>1995-01-16</t>
+  </si>
+  <si>
+    <t>2014-05-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-05-14</t>
+  </si>
+  <si>
+    <t>2014-05-15</t>
+  </si>
+  <si>
+    <t>2015-09-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-05-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-09-13</t>
+  </si>
+  <si>
+    <t>2017-01-24</t>
+  </si>
+  <si>
+    <t>2017-03-22</t>
+  </si>
+  <si>
+    <t>2016-03-13</t>
+  </si>
+  <si>
+    <t>2016-05-27</t>
+  </si>
+  <si>
+    <t>2015-09-14</t>
+  </si>
+  <si>
+    <t>2017-01-25</t>
+  </si>
+  <si>
+    <t>2017-03-23</t>
+  </si>
+  <si>
+    <t>出生年月日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT Org</t>
+  </si>
+  <si>
+    <t>It部经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级java工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据挖掘师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI设计师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务总监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务干事</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +487,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +526,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -226,11 +557,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -240,10 +574,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -545,23 +881,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="11.125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="13.875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
@@ -581,65 +920,591 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5">
+        <v>18201940000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
-        <v>18201111111</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B3" s="5">
+        <v>18201940001</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B4" s="5">
+        <v>18201940002</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B5" s="5">
+        <v>18201940003</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B6" s="5">
+        <v>18201940004</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="B7" s="5">
+        <v>18201940005</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="B8" s="5">
+        <v>18201940006</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5">
+        <v>18201940007</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="B10" s="5">
+        <v>18201940008</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="B11" s="5">
+        <v>18201940009</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>18201940010</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5">
+        <v>18201940011</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5">
+        <v>18201940012</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5">
+        <v>18201940013</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5">
+        <v>18201940014</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5">
+        <v>18201940015</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>